--- a/biology/Zoologie/Dryophytes_chrysoscelis/Dryophytes_chrysoscelis.xlsx
+++ b/biology/Zoologie/Dryophytes_chrysoscelis/Dryophytes_chrysoscelis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryophytes chrysoscelis parfois appelé Rainette criarde, est une espèce d'amphibien de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryophytes chrysoscelis parfois appelé Rainette criarde, est une espèce d'amphibien de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 dans l'est des États-Unis : dans l'est du Texas, dans l'est de l'Oklahoma, en Louisiane, en Arkansas, au Mississippi, en Alabama, dans le nord de la Floride, en Géorgie, en Caroline du Sud, en Caroline du Nord, au Tennessee, en Virginie, en Virginie-Occidentale, au Kentucky, au Missouri, dans l'est du Kansas, dans l'est du Nebraska, au Minnesota, en Iowa, en Illinois, dans l'est du Dakota du Sud, dans l'est du Dakota du Nord,  au Wisconsin, au Michigan, en Indiana, en Ohio, en Pennsylvanie, au Maryland, au Delaware, au New Jersey, dans l'État de New-York, au Connecticut, au Rhode Island, au Massachusetts, au Vermont, au New Hampshire, au sud du Maine.
 au Canada : dans le sud du Manitoba, dans le sud de l'Ontario, dans le sud du Québec, au Nouveau-Brunswick.
-On trouve souvent les adultes dans les arbres. Les juvéniles sont dans les laîches, les baldingères faux-roseau ou dans les jeunes chênes bicolores. Ils sont généralement à moins de 50 cm du sol[3]. 
+On trouve souvent les adultes dans les arbres. Les juvéniles sont dans les laîches, les baldingères faux-roseau ou dans les jeunes chênes bicolores. Ils sont généralement à moins de 50 cm du sol. 
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se nourrit de chenilles, de scarabées, de mouches, de cafards (Parcoblatta sp., Ischnoptera deropeltiformis) et de criquets (Ceuthophilus sp.)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se nourrit de chenilles, de scarabées, de mouches, de cafards (Parcoblatta sp., Ischnoptera deropeltiformis) et de criquets (Ceuthophilus sp.).
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle forme avec Dryophytes versicolor un couple d'espèces cryptiques[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle forme avec Dryophytes versicolor un couple d'espèces cryptiques.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1880 : On the zoological position of Texas. Bulletin of the United States National Museum, vol. 17, p. 1-51 (texte intégral).</t>
         </is>
